--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SK\Documents\Netology\QA\HW\Mod12_Diplom_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C33AD35-6BD2-48E6-89EA-0F5C692EF24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49D3B5F-B6EB-4797-A591-47D604B419E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -48,12 +48,6 @@
     <t>автоматизированное тестирование</t>
   </si>
   <si>
-    <t>Установка мобильного приложения на эмулятор</t>
-  </si>
-  <si>
-    <t>Установка мобильного приложения на физическое устройство</t>
-  </si>
-  <si>
     <t>Чек-лист  тестирования мобильного приложения</t>
   </si>
   <si>
@@ -87,45 +81,12 @@
     <t>1. Установка  и удаление приложения</t>
   </si>
   <si>
-    <t>Деинсталляция приложения</t>
-  </si>
-  <si>
-    <t>Повторная установка после деинсталляции</t>
-  </si>
-  <si>
-    <t>1. Ввод валидных значений в поля "логин" и "пароль"</t>
-  </si>
-  <si>
     <t>Сергей Козловский</t>
   </si>
   <si>
-    <t>2. Ввод невалидных значений в поле "логин"</t>
-  </si>
-  <si>
-    <t>3. Ввод невалидных значений в поле "пароль"</t>
-  </si>
-  <si>
-    <t>4. Пустое поле "логин"</t>
-  </si>
-  <si>
-    <t>5. Пустое поле "пароль"</t>
-  </si>
-  <si>
-    <t>6. Пустые поля логина и пароля</t>
-  </si>
-  <si>
     <t>1. Переход на страницу "Новости" с помощью выпадающего меню News</t>
   </si>
   <si>
-    <t xml:space="preserve">2.  Переход на страницу "Новости" с помощью главного меню </t>
-  </si>
-  <si>
-    <t>3. Переход на страницу " О приложении"  с помощью главного меню</t>
-  </si>
-  <si>
-    <t>4. Переход на страницу "Тематические цитаты" (Love is all) с помощью кнопки на главной странице</t>
-  </si>
-  <si>
     <t>5. Переход к меню "Выход из приложения " (Log out) с помощью кнопки на главной странице</t>
   </si>
   <si>
@@ -144,45 +105,9 @@
     <t>2.4. Страница "Новости"</t>
   </si>
   <si>
-    <t>1. Переход на главную страницу с помощью главного меню</t>
-  </si>
-  <si>
-    <t>2. Переход на страницу "О приложении с помощью главного меню"</t>
-  </si>
-  <si>
-    <t>3. Отображение списка новостей</t>
-  </si>
-  <si>
-    <t>5. Управление сортировкой новостей с помощью кнопки сортировки</t>
-  </si>
-  <si>
-    <t>6. Переход к странице настройки фильтра новостей с помощью кнопки</t>
-  </si>
-  <si>
-    <t>7.Переход на страницу "Тематические цитаты" (Love is all) с помощью кнопки</t>
-  </si>
-  <si>
-    <t>8. Переход к меню "Выход из приложения " (Log out) с помощью кнопки</t>
-  </si>
-  <si>
     <t>2.5. Страница "Тематические цитаты"</t>
   </si>
   <si>
-    <t>2. Переход на страницу "Новости" с помощью главного меню</t>
-  </si>
-  <si>
-    <t>3. Переход на страницу "О приложении" с помощью главного меню"</t>
-  </si>
-  <si>
-    <t>4. Отображение списка цитат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Раскрытие любой цитаты </t>
-  </si>
-  <si>
-    <t>6. Прокрутка списка цитат</t>
-  </si>
-  <si>
     <t>2.7. Страница "О приложении"</t>
   </si>
   <si>
@@ -207,30 +132,9 @@
     <t>2. Выход из вкладки "Фильтр новостей"</t>
   </si>
   <si>
-    <t>3. Выбор категории из выпадающего списка</t>
-  </si>
-  <si>
-    <t>4. Выбор категории методом ввода с клавиатуры</t>
-  </si>
-  <si>
-    <t>2. Возможность раскрытия текста новости с помощью кнопки стрелка вниз</t>
-  </si>
-  <si>
-    <t>3. Удаление новости с помощью кнопки удаления</t>
-  </si>
-  <si>
-    <t>4. Переход на страницу редактирования новости с помощью кнопки редактирования</t>
-  </si>
-  <si>
-    <t>5. Переход на страницу добавления новости с помощью кнопки "добавить новость"</t>
-  </si>
-  <si>
     <t>2.4.2. Вкладка управления списком новостей (Control panel)</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Переход на страницу управления списком новостей с помощью кнопки </t>
-  </si>
-  <si>
     <t>1. Отображение вкладки управления новостей</t>
   </si>
   <si>
@@ -241,18 +145,6 @@
   </si>
   <si>
     <t>2. Выбор категории новости с помощью выпадающего списка</t>
-  </si>
-  <si>
-    <t>5. Выбор периода дат с помощью встроенного календаря  - начальная дата ранее конечной</t>
-  </si>
-  <si>
-    <t>6.  Выбор периода дат с помощью встроенного календаря  - начальная дата позже конечной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Выбор периода дат с помощью встроенного календаря  - только  начальная дата </t>
-  </si>
-  <si>
-    <t>8. Выбор периода дат с помощью встроенного календаря  - только конечная  дата</t>
   </si>
   <si>
     <t>3. Ввод текста в поле  "Title"</t>
@@ -389,13 +281,85 @@
   <si>
     <t>эмулятор Pixel 4 API 31 (Android 12, RAM 2 Gb)
 физич. устройство - Realme 10 pro (Android 14, RAM 8 Gb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  Навигация по страницам приложения  с помощью главного меню </t>
+  </si>
+  <si>
+    <t>1. Навигация по страницам приложения  с помощью главного меню</t>
+  </si>
+  <si>
+    <t>1. Авторизация при вводе валидных значений в поля "логин" и "пароль"</t>
+  </si>
+  <si>
+    <t>2. Валидация поля "логин"</t>
+  </si>
+  <si>
+    <t>3. Валидация поля "пароль"</t>
+  </si>
+  <si>
+    <t>3. Переход на страницу "Тематические цитаты" (Love is all) с помощью кнопки на главной странице</t>
+  </si>
+  <si>
+    <t>1. Установка мобильного приложения на эмулятор</t>
+  </si>
+  <si>
+    <t>2. Установка мобильного приложения на физическое устройство</t>
+  </si>
+  <si>
+    <t>3. Деинсталляция приложения</t>
+  </si>
+  <si>
+    <t>4. Повторная установка после деинсталляции</t>
+  </si>
+  <si>
+    <t>2. Отображение списка новостей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Переход на страницу управления списком новостей с помощью кнопки </t>
+  </si>
+  <si>
+    <t>4. Управление сортировкой новостей с помощью кнопки сортировки</t>
+  </si>
+  <si>
+    <t>5. Переход к странице настройки фильтра новостей с помощью кнопки</t>
+  </si>
+  <si>
+    <t>6. Переход на страницу "Тематические цитаты" (Love is all) с помощью кнопки</t>
+  </si>
+  <si>
+    <t>7. Переход к меню "Выход из приложения " (Log out) с помощью кнопки</t>
+  </si>
+  <si>
+    <t>2. Отображение списка цитат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Раскрытие любой цитаты </t>
+  </si>
+  <si>
+    <t>4. Прокрутка списка цитат</t>
+  </si>
+  <si>
+    <t>3. Работа фильтра новостей</t>
+  </si>
+  <si>
+    <t>3. Удаление новости</t>
+  </si>
+  <si>
+    <t>4. Редактирование новости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Возможность раскрытия текста новости </t>
+  </si>
+  <si>
+    <t>5. Добавление новости</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,13 +397,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -524,19 +481,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,6 +564,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -627,9 +606,7 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -640,7 +617,44 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -652,15 +666,86 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -672,68 +757,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1016,16 +1144,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="2" width="48.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
@@ -1033,634 +1161,1144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="7">
+        <v>45931</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="20">
-        <v>45931</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36"/>
+      <c r="B11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="C13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="D5" s="11" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="40"/>
+      <c r="B15" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="36"/>
+      <c r="B18" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="C19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
+      <c r="B26" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
+      <c r="B27" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="40"/>
+      <c r="B29" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="40"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="B34" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
+      <c r="C34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="35"/>
+      <c r="B35" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="35"/>
+      <c r="B37" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="36"/>
+      <c r="B38" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="35"/>
+      <c r="B40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="35"/>
+      <c r="B42" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="35"/>
+      <c r="B43" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="35"/>
+      <c r="B44" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="35"/>
+      <c r="B45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="35"/>
+      <c r="B46" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="35"/>
+      <c r="B47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="36"/>
+      <c r="B48" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="35"/>
+      <c r="B51" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="35"/>
+      <c r="B52" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="35"/>
+      <c r="B53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="35"/>
+      <c r="B54" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="35"/>
+      <c r="B55" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="35"/>
+      <c r="B56" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="35"/>
+      <c r="B57" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="36"/>
+      <c r="B58" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="B59" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="35"/>
+      <c r="B60" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="35"/>
+      <c r="B61" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="26"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="36"/>
+      <c r="B62" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
+      <c r="B63" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="C63" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="39"/>
+      <c r="B64" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
+      <c r="C64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="39"/>
+      <c r="B65" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="C65" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="40"/>
+      <c r="B66" s="27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+      <c r="C66" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="35"/>
+      <c r="B68" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A69" s="35"/>
+      <c r="B69" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="35"/>
+      <c r="B70" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="35"/>
+      <c r="B71" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="35"/>
+      <c r="B72" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="36"/>
+      <c r="B73" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="39"/>
+      <c r="B75" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="39"/>
+      <c r="B76" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A77" s="39"/>
+      <c r="B77" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="39"/>
+      <c r="B78" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="40"/>
+      <c r="B80" s="33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
+      <c r="C80" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="39"/>
+      <c r="B82" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+      <c r="C82" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="39"/>
+      <c r="B83" s="22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
+      <c r="C83" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="26"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="39"/>
+      <c r="B84" s="22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
+      <c r="C84" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="39"/>
+      <c r="B85" s="22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B47" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B50" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="7" t="s">
+      <c r="C85" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="40"/>
+      <c r="B86" s="33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="7" t="s">
+      <c r="C86" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
+      <c r="B87" s="32" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="7" t="s">
+      <c r="C87" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="25"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
+      <c r="B88" s="22" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
+      <c r="C88" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="26"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="39"/>
+      <c r="B89" s="22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
+      <c r="C89" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="26"/>
+    </row>
+    <row r="90" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
+      <c r="B90" s="22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="7" t="s">
+      <c r="C90" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="26"/>
+    </row>
+    <row r="91" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="40"/>
+      <c r="B91" s="33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B78" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="B81" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="B89" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="B91" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="B92" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="B102" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="B103" s="18" t="s">
-        <v>118</v>
-      </c>
+      <c r="C91" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="28">
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1669,11 +2307,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SK\Documents\Netology\QA\HW\Mod12_Diplom_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ECEBBC-9856-4D31-9C74-FF8A0038DC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796D52E-9506-441A-84E9-941793FC1645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -376,33 +376,6 @@
     <t>год даты создания отображается 5-значным числом</t>
   </si>
   <si>
-    <t>3. Выбор категории новости с помощью выпадающего списка</t>
-  </si>
-  <si>
-    <t>4. Ввод текста в поле  "Title"</t>
-  </si>
-  <si>
-    <t>6. Изменение времени</t>
-  </si>
-  <si>
-    <t>5. Изменение даты</t>
-  </si>
-  <si>
-    <t>7. Ввод текста а поле "Description"</t>
-  </si>
-  <si>
-    <t>8. Изменение переключателя Active</t>
-  </si>
-  <si>
-    <t>9. Сохранение изменений</t>
-  </si>
-  <si>
-    <t>10. Работа кнопки отмены</t>
-  </si>
-  <si>
-    <t>11. Просмотр измененной новости в списке новостей</t>
-  </si>
-  <si>
     <t>ссылка недоступна</t>
   </si>
   <si>
@@ -416,6 +389,18 @@
   </si>
   <si>
     <t>при применении темной темы надписи и сообщения нечитаемы</t>
+  </si>
+  <si>
+    <t>4. Изменение даты</t>
+  </si>
+  <si>
+    <t>5. Изменение времени</t>
+  </si>
+  <si>
+    <t>8. Сохранение изменений</t>
+  </si>
+  <si>
+    <t>10. Просмотр измененной новости в списке новостей</t>
   </si>
 </sst>
 </file>
@@ -889,69 +874,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -967,13 +889,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{8C208D41-69A7-44B3-9D8E-209B95BAA0AF}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -981,26 +966,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1282,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,92 +1262,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39">
+      <c r="B3" s="26"/>
+      <c r="C3" s="29">
         <v>45931</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1398,7 +1363,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
@@ -1412,7 +1377,7 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5" t="s">
         <v>89</v>
       </c>
@@ -1426,7 +1391,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
         <v>90</v>
       </c>
@@ -1450,7 +1415,7 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1466,7 +1431,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +1445,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -1494,7 +1459,7 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1510,7 +1475,7 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="5" t="s">
         <v>84</v>
       </c>
@@ -1524,7 +1489,7 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
         <v>85</v>
       </c>
@@ -1538,7 +1503,7 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1554,7 +1519,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
@@ -1568,7 +1533,7 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1561,7 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1609,12 +1574,12 @@
         <v>106</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="41" t="s">
-        <v>126</v>
+      <c r="F23" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="5" t="s">
         <v>91</v>
       </c>
@@ -1630,7 +1595,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
@@ -1644,7 +1609,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="5" t="s">
         <v>93</v>
       </c>
@@ -1658,7 +1623,7 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
@@ -1672,7 +1637,7 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
@@ -1686,7 +1651,7 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="12" t="s">
         <v>96</v>
       </c>
@@ -1700,7 +1665,7 @@
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1716,7 +1681,7 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1730,7 +1695,7 @@
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="5" t="s">
         <v>100</v>
       </c>
@@ -1741,12 +1706,12 @@
         <v>106</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="42" t="s">
+      <c r="F32" s="21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1754,7 +1719,7 @@
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1769,24 +1734,24 @@
       <c r="E34" s="9"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>15</v>
@@ -1797,72 +1762,72 @@
       <c r="E36" s="6"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
       <c r="B37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="42" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25"/>
-      <c r="B38" s="12" t="s">
+    <row r="39" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="43"/>
+      <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="C39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="43" t="s">
+      <c r="E39" s="13"/>
+      <c r="F39" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+    <row r="40" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46" t="s">
-        <v>115</v>
-      </c>
+      <c r="C40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="5" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>15</v>
@@ -1874,9 +1839,9 @@
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="5" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>15</v>
@@ -1888,9 +1853,9 @@
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>15</v>
@@ -1902,9 +1867,9 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>15</v>
@@ -1916,9 +1881,9 @@
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="5" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>15</v>
@@ -1930,9 +1895,9 @@
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="5" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>15</v>
@@ -1944,9 +1909,9 @@
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>15</v>
@@ -1955,14 +1920,14 @@
         <v>106</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="5" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>15</v>
@@ -1974,7 +1939,7 @@
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="25"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="12" t="s">
         <v>124</v>
       </c>
@@ -1985,12 +1950,12 @@
         <v>106</v>
       </c>
       <c r="E49" s="13"/>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -2006,7 +1971,7 @@
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="5" t="s">
         <v>39</v>
       </c>
@@ -2020,7 +1985,7 @@
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="5" t="s">
         <v>40</v>
       </c>
@@ -2034,7 +1999,7 @@
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="5" t="s">
         <v>46</v>
       </c>
@@ -2048,7 +2013,7 @@
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="5" t="s">
         <v>47</v>
       </c>
@@ -2062,7 +2027,7 @@
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="5" t="s">
         <v>41</v>
       </c>
@@ -2076,7 +2041,7 @@
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="5" t="s">
         <v>42</v>
       </c>
@@ -2090,7 +2055,7 @@
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="5" t="s">
         <v>48</v>
       </c>
@@ -2101,12 +2066,12 @@
         <v>106</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="42" t="s">
+      <c r="F57" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="5" t="s">
         <v>43</v>
       </c>
@@ -2120,7 +2085,7 @@
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="25"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="12" t="s">
         <v>49</v>
       </c>
@@ -2131,12 +2096,12 @@
         <v>106</v>
       </c>
       <c r="E59" s="13"/>
-      <c r="F59" s="43" t="s">
+      <c r="F59" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -2152,7 +2117,7 @@
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="5" t="s">
         <v>97</v>
       </c>
@@ -2166,7 +2131,7 @@
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="5" t="s">
         <v>98</v>
       </c>
@@ -2180,7 +2145,7 @@
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="25"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="12" t="s">
         <v>99</v>
       </c>
@@ -2194,7 +2159,7 @@
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -2210,7 +2175,7 @@
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="5" t="s">
         <v>29</v>
       </c>
@@ -2222,11 +2187,11 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
@@ -2238,11 +2203,11 @@
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="22"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="12" t="s">
         <v>31</v>
       </c>
@@ -2256,7 +2221,7 @@
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="17" t="s">
@@ -2272,7 +2237,7 @@
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="7" t="s">
         <v>51</v>
       </c>
@@ -2286,7 +2251,7 @@
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="7" t="s">
         <v>52</v>
       </c>
@@ -2300,7 +2265,7 @@
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="24"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="7" t="s">
         <v>53</v>
       </c>
@@ -2314,7 +2279,7 @@
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="24"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="7" t="s">
         <v>54</v>
       </c>
@@ -2328,7 +2293,7 @@
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="24"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="7" t="s">
         <v>55</v>
       </c>
@@ -2342,7 +2307,7 @@
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="25"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="18" t="s">
         <v>56</v>
       </c>
@@ -2356,7 +2321,7 @@
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -2366,13 +2331,13 @@
         <v>15</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="7" t="s">
         <v>58</v>
       </c>
@@ -2386,7 +2351,7 @@
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="7" t="s">
         <v>59</v>
       </c>
@@ -2400,7 +2365,7 @@
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="7" t="s">
         <v>60</v>
       </c>
@@ -2412,7 +2377,7 @@
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="7" t="s">
         <v>61</v>
       </c>
@@ -2426,7 +2391,7 @@
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="7" t="s">
         <v>62</v>
       </c>
@@ -2434,13 +2399,13 @@
         <v>13</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="18" t="s">
         <v>63</v>
       </c>
@@ -2451,12 +2416,12 @@
         <v>106</v>
       </c>
       <c r="E81" s="13"/>
-      <c r="F81" s="43" t="s">
-        <v>129</v>
+      <c r="F81" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="44" t="s">
         <v>65</v>
       </c>
       <c r="B82" s="17" t="s">
@@ -2472,7 +2437,7 @@
       <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="7" t="s">
         <v>68</v>
       </c>
@@ -2486,7 +2451,7 @@
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="7" t="s">
         <v>69</v>
       </c>
@@ -2500,7 +2465,7 @@
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="7" t="s">
         <v>70</v>
       </c>
@@ -2514,7 +2479,7 @@
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="7" t="s">
         <v>71</v>
       </c>
@@ -2528,7 +2493,7 @@
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="22"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="18" t="s">
         <v>72</v>
       </c>
@@ -2542,7 +2507,7 @@
       <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="44" t="s">
         <v>73</v>
       </c>
       <c r="B88" s="17" t="s">
@@ -2558,7 +2523,7 @@
       <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="21"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="7" t="s">
         <v>75</v>
       </c>
@@ -2570,7 +2535,7 @@
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="21"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="7" t="s">
         <v>76</v>
       </c>
@@ -2582,7 +2547,7 @@
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="7" t="s">
         <v>77</v>
       </c>
@@ -2596,7 +2561,7 @@
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="22"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="18" t="s">
         <v>78</v>
       </c>
@@ -2611,6 +2576,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2619,26 +2604,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A92"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E92">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="не">

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SK\Documents\Netology\QA\HW\Mod12_Diplom_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796D52E-9506-441A-84E9-941793FC1645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF2770E-6D48-4B0B-B023-2977574E3CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="125">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -890,6 +890,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,54 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,92 +1262,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="29">
+      <c r="B3" s="42"/>
+      <c r="C3" s="45">
         <v>45931</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="43"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="40" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1363,7 +1363,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5" t="s">
         <v>89</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="12" t="s">
         <v>90</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1431,7 +1431,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1471,11 +1471,13 @@
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="5" t="s">
         <v>84</v>
       </c>
@@ -1489,7 +1491,7 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="12" t="s">
         <v>85</v>
       </c>
@@ -1503,7 +1505,7 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1519,7 +1521,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
@@ -1533,7 +1535,7 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
@@ -1547,7 +1549,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
@@ -1561,7 +1563,7 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1579,7 +1581,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>91</v>
       </c>
@@ -1595,7 +1597,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="5" t="s">
         <v>93</v>
       </c>
@@ -1623,7 +1625,7 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
@@ -1637,7 +1639,7 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
@@ -1651,7 +1653,7 @@
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="12" t="s">
         <v>96</v>
       </c>
@@ -1665,7 +1667,7 @@
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1681,7 +1683,7 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1695,7 +1697,7 @@
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="5" t="s">
         <v>100</v>
       </c>
@@ -1711,7 +1713,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="46"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1719,7 +1721,7 @@
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1735,7 +1737,7 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="23" t="s">
         <v>114</v>
       </c>
@@ -1749,7 +1751,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -1763,7 +1765,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="5" t="s">
         <v>101</v>
       </c>
@@ -1777,7 +1779,7 @@
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="5" t="s">
         <v>102</v>
       </c>
@@ -1793,7 +1795,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="43"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
@@ -1809,7 +1811,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1825,7 +1827,7 @@
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1839,7 +1841,7 @@
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="5" t="s">
         <v>40</v>
       </c>
@@ -1853,7 +1855,7 @@
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="5" t="s">
         <v>121</v>
       </c>
@@ -1867,7 +1869,7 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="5" t="s">
         <v>122</v>
       </c>
@@ -1881,7 +1883,7 @@
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
@@ -1895,7 +1897,7 @@
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="5" t="s">
         <v>42</v>
       </c>
@@ -1909,7 +1911,7 @@
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="5" t="s">
         <v>123</v>
       </c>
@@ -1925,7 +1927,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="5" t="s">
         <v>43</v>
       </c>
@@ -1939,7 +1941,7 @@
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="43"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="12" t="s">
         <v>124</v>
       </c>
@@ -1955,7 +1957,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -1971,7 +1973,7 @@
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="5" t="s">
         <v>39</v>
       </c>
@@ -1985,7 +1987,7 @@
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="5" t="s">
         <v>40</v>
       </c>
@@ -1999,7 +2001,7 @@
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="5" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +2015,7 @@
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="5" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +2029,7 @@
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="5" t="s">
         <v>41</v>
       </c>
@@ -2041,7 +2043,7 @@
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="5" t="s">
         <v>42</v>
       </c>
@@ -2055,7 +2057,7 @@
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="5" t="s">
         <v>48</v>
       </c>
@@ -2071,7 +2073,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="5" t="s">
         <v>43</v>
       </c>
@@ -2085,7 +2087,7 @@
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="43"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="12" t="s">
         <v>49</v>
       </c>
@@ -2101,7 +2103,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -2117,7 +2119,7 @@
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="5" t="s">
         <v>97</v>
       </c>
@@ -2131,7 +2133,7 @@
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="5" t="s">
         <v>98</v>
       </c>
@@ -2145,7 +2147,7 @@
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="12" t="s">
         <v>99</v>
       </c>
@@ -2159,7 +2161,7 @@
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -2175,7 +2177,7 @@
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="45"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="5" t="s">
         <v>29</v>
       </c>
@@ -2191,7 +2193,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="45"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
@@ -2207,7 +2209,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="46"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="12" t="s">
         <v>31</v>
       </c>
@@ -2221,7 +2223,7 @@
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="29" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="17" t="s">
@@ -2237,7 +2239,7 @@
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="7" t="s">
         <v>51</v>
       </c>
@@ -2251,7 +2253,7 @@
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="7" t="s">
         <v>52</v>
       </c>
@@ -2265,7 +2267,7 @@
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="7" t="s">
         <v>53</v>
       </c>
@@ -2279,7 +2281,7 @@
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="7" t="s">
         <v>54</v>
       </c>
@@ -2293,7 +2295,7 @@
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="7" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +2309,7 @@
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="43"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="18" t="s">
         <v>56</v>
       </c>
@@ -2321,7 +2323,7 @@
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -2337,7 +2339,7 @@
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="45"/>
+      <c r="A76" s="27"/>
       <c r="B76" s="7" t="s">
         <v>58</v>
       </c>
@@ -2351,7 +2353,7 @@
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="45"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="7" t="s">
         <v>59</v>
       </c>
@@ -2365,7 +2367,7 @@
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
+      <c r="A78" s="27"/>
       <c r="B78" s="7" t="s">
         <v>60</v>
       </c>
@@ -2377,7 +2379,7 @@
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="7" t="s">
         <v>61</v>
       </c>
@@ -2391,7 +2393,7 @@
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A80" s="45"/>
+      <c r="A80" s="27"/>
       <c r="B80" s="7" t="s">
         <v>62</v>
       </c>
@@ -2405,7 +2407,7 @@
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="46"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="18" t="s">
         <v>63</v>
       </c>
@@ -2421,7 +2423,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B82" s="17" t="s">
@@ -2437,7 +2439,7 @@
       <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="45"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="7" t="s">
         <v>68</v>
       </c>
@@ -2451,7 +2453,7 @@
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="45"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="7" t="s">
         <v>69</v>
       </c>
@@ -2465,7 +2467,7 @@
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="45"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="7" t="s">
         <v>70</v>
       </c>
@@ -2479,7 +2481,7 @@
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="45"/>
+      <c r="A86" s="27"/>
       <c r="B86" s="7" t="s">
         <v>71</v>
       </c>
@@ -2493,7 +2495,7 @@
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="46"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="18" t="s">
         <v>72</v>
       </c>
@@ -2507,7 +2509,7 @@
       <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="26" t="s">
         <v>73</v>
       </c>
       <c r="B88" s="17" t="s">
@@ -2523,7 +2525,7 @@
       <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="45"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="7" t="s">
         <v>75</v>
       </c>
@@ -2535,7 +2537,7 @@
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="45"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="7" t="s">
         <v>76</v>
       </c>
@@ -2547,7 +2549,7 @@
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A91" s="45"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="7" t="s">
         <v>77</v>
       </c>
@@ -2561,7 +2563,7 @@
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="46"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="18" t="s">
         <v>78</v>
       </c>
@@ -2576,26 +2578,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2604,6 +2586,26 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A92"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E92">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="не">

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SK\Documents\Netology\QA\HW\Mod12_Diplom_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF2770E-6D48-4B0B-B023-2977574E3CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F91625-B139-49DC-B4E3-6DF46A20E45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="255" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="125">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -890,6 +890,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -898,60 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,92 +1262,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="45">
+      <c r="B3" s="26"/>
+      <c r="C3" s="29">
         <v>45931</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="40" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1363,7 +1363,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5" t="s">
         <v>89</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
         <v>90</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1431,7 +1431,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1477,7 +1477,7 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="5" t="s">
         <v>84</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="12" t="s">
         <v>85</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="41" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -1521,7 +1521,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="5" t="s">
         <v>81</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1581,7 +1581,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="5" t="s">
         <v>91</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="5" t="s">
         <v>93</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="5" t="s">
         <v>95</v>
       </c>
@@ -1649,11 +1649,13 @@
       <c r="D28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="12" t="s">
         <v>96</v>
       </c>
@@ -1663,11 +1665,13 @@
       <c r="D29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -1683,7 +1687,7 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1697,7 +1701,7 @@
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="5" t="s">
         <v>100</v>
       </c>
@@ -1713,7 +1717,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1721,7 +1725,7 @@
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1737,7 +1741,7 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="23" t="s">
         <v>114</v>
       </c>
@@ -1751,7 +1755,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="5" t="s">
         <v>103</v>
       </c>
@@ -1765,7 +1769,7 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="5" t="s">
         <v>101</v>
       </c>
@@ -1779,7 +1783,7 @@
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="5" t="s">
         <v>102</v>
       </c>
@@ -1795,7 +1799,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
@@ -1811,7 +1815,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="41" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1827,7 +1831,7 @@
       <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
@@ -1841,7 +1845,7 @@
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="5" t="s">
         <v>40</v>
       </c>
@@ -1855,7 +1859,7 @@
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="5" t="s">
         <v>121</v>
       </c>
@@ -1869,7 +1873,7 @@
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="5" t="s">
         <v>122</v>
       </c>
@@ -1883,7 +1887,7 @@
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="5" t="s">
         <v>41</v>
       </c>
@@ -1897,7 +1901,7 @@
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="5" t="s">
         <v>42</v>
       </c>
@@ -1911,7 +1915,7 @@
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="5" t="s">
         <v>123</v>
       </c>
@@ -1927,7 +1931,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="5" t="s">
         <v>43</v>
       </c>
@@ -1941,7 +1945,7 @@
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="12" t="s">
         <v>124</v>
       </c>
@@ -1957,7 +1961,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -1973,7 +1977,7 @@
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="5" t="s">
         <v>39</v>
       </c>
@@ -1987,7 +1991,7 @@
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="5" t="s">
         <v>40</v>
       </c>
@@ -2001,7 +2005,7 @@
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="5" t="s">
         <v>46</v>
       </c>
@@ -2015,7 +2019,7 @@
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="5" t="s">
         <v>47</v>
       </c>
@@ -2029,7 +2033,7 @@
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="5" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2047,7 @@
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="5" t="s">
         <v>42</v>
       </c>
@@ -2057,7 +2061,7 @@
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="5" t="s">
         <v>48</v>
       </c>
@@ -2073,7 +2077,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="5" t="s">
         <v>43</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="31"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="12" t="s">
         <v>49</v>
       </c>
@@ -2103,7 +2107,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -2119,7 +2123,7 @@
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="5" t="s">
         <v>97</v>
       </c>
@@ -2133,7 +2137,7 @@
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="5" t="s">
         <v>98</v>
       </c>
@@ -2147,7 +2151,7 @@
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="31"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="12" t="s">
         <v>99</v>
       </c>
@@ -2161,7 +2165,7 @@
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -2177,7 +2181,7 @@
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="5" t="s">
         <v>29</v>
       </c>
@@ -2193,7 +2197,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
@@ -2209,7 +2213,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="28"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="12" t="s">
         <v>31</v>
       </c>
@@ -2223,7 +2227,7 @@
       <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="41" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="17" t="s">
@@ -2239,7 +2243,7 @@
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="7" t="s">
         <v>51</v>
       </c>
@@ -2253,7 +2257,7 @@
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A70" s="30"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="7" t="s">
         <v>52</v>
       </c>
@@ -2267,7 +2271,7 @@
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="30"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="7" t="s">
         <v>53</v>
       </c>
@@ -2281,7 +2285,7 @@
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="30"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="7" t="s">
         <v>54</v>
       </c>
@@ -2295,7 +2299,7 @@
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="30"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="7" t="s">
         <v>55</v>
       </c>
@@ -2309,7 +2313,7 @@
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="31"/>
+      <c r="A74" s="43"/>
       <c r="B74" s="18" t="s">
         <v>56</v>
       </c>
@@ -2323,7 +2327,7 @@
       <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B75" s="17" t="s">
@@ -2339,7 +2343,7 @@
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="27"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="7" t="s">
         <v>58</v>
       </c>
@@ -2353,7 +2357,7 @@
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="7" t="s">
         <v>59</v>
       </c>
@@ -2367,7 +2371,7 @@
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A78" s="27"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="7" t="s">
         <v>60</v>
       </c>
@@ -2379,7 +2383,7 @@
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="27"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="7" t="s">
         <v>61</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A80" s="27"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="7" t="s">
         <v>62</v>
       </c>
@@ -2407,7 +2411,7 @@
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="28"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="18" t="s">
         <v>63</v>
       </c>
@@ -2423,7 +2427,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="44" t="s">
         <v>65</v>
       </c>
       <c r="B82" s="17" t="s">
@@ -2439,7 +2443,7 @@
       <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="7" t="s">
         <v>68</v>
       </c>
@@ -2453,7 +2457,7 @@
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="7" t="s">
         <v>69</v>
       </c>
@@ -2467,7 +2471,7 @@
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="7" t="s">
         <v>70</v>
       </c>
@@ -2481,7 +2485,7 @@
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="7" t="s">
         <v>71</v>
       </c>
@@ -2495,7 +2499,7 @@
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="28"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="18" t="s">
         <v>72</v>
       </c>
@@ -2509,7 +2513,7 @@
       <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="44" t="s">
         <v>73</v>
       </c>
       <c r="B88" s="17" t="s">
@@ -2525,7 +2529,7 @@
       <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="7" t="s">
         <v>75</v>
       </c>
@@ -2537,7 +2541,7 @@
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="7" t="s">
         <v>76</v>
       </c>
@@ -2549,7 +2553,7 @@
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A91" s="27"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="7" t="s">
         <v>77</v>
       </c>
@@ -2563,7 +2567,7 @@
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="28"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="18" t="s">
         <v>78</v>
       </c>
@@ -2578,6 +2582,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2586,26 +2610,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A50:A59"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A92"/>
   </mergeCells>
   <conditionalFormatting sqref="D8:E92">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="не">
